--- a/data/trans_dic/P36$pan-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$pan-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>76,74; 83,67</t>
+          <t>76,98; 83,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>76,92; 84,46</t>
+          <t>77,13; 85,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,94; 89,16</t>
+          <t>82,0; 88,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>73,31; 80,71</t>
+          <t>73,02; 80,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>74,25; 81,91</t>
+          <t>73,58; 81,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>79,61; 86,7</t>
+          <t>79,99; 86,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>76,11; 81,39</t>
+          <t>76,11; 81,44</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,88; 82,09</t>
+          <t>76,83; 82,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>82,15; 87,29</t>
+          <t>82,06; 86,97</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,11; 80,22</t>
+          <t>73,95; 80,12</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,75; 79,39</t>
+          <t>72,73; 79,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>80,25; 86,7</t>
+          <t>80,53; 86,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>73,34; 80,11</t>
+          <t>72,69; 79,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,01; 83,04</t>
+          <t>76,53; 83,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>82,15; 88,0</t>
+          <t>82,02; 88,18</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,82; 79,26</t>
+          <t>74,61; 79,4</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,32; 80,39</t>
+          <t>75,66; 80,41</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>82,23; 86,48</t>
+          <t>82,38; 86,62</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>68,99; 76,14</t>
+          <t>68,83; 76,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,61; 82,06</t>
+          <t>75,88; 82,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>77,64; 83,66</t>
+          <t>77,42; 83,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>73,01; 79,54</t>
+          <t>73,28; 79,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>80,45; 85,98</t>
+          <t>80,51; 86,43</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>84,79; 89,95</t>
+          <t>84,47; 89,53</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>72,03; 76,81</t>
+          <t>72,17; 77,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>79,14; 83,41</t>
+          <t>79,19; 83,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>81,97; 85,81</t>
+          <t>81,75; 85,74</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>70,32; 78,17</t>
+          <t>70,0; 78,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>76,68; 83,25</t>
+          <t>76,73; 83,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>79,11; 85,21</t>
+          <t>78,72; 85,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>73,82; 81,27</t>
+          <t>74,37; 81,47</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>79,83; 86,38</t>
+          <t>80,06; 86,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>85,39; 90,54</t>
+          <t>85,61; 90,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>73,53; 78,98</t>
+          <t>73,21; 78,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,33; 83,98</t>
+          <t>79,03; 83,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>83,26; 87,38</t>
+          <t>83,21; 87,28</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>74,55; 82,82</t>
+          <t>74,68; 82,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>75,85; 84,16</t>
+          <t>75,33; 83,66</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>82,32; 89,22</t>
+          <t>82,4; 88,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>75,93; 83,56</t>
+          <t>76,01; 83,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,26; 87,46</t>
+          <t>80,24; 87,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>85,62; 91,67</t>
+          <t>85,88; 91,59</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>76,58; 82,07</t>
+          <t>76,72; 82,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,99; 84,54</t>
+          <t>79,29; 84,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>85,17; 89,68</t>
+          <t>84,9; 89,46</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>69,65; 79,76</t>
+          <t>69,09; 79,24</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>79,4; 88,45</t>
+          <t>78,81; 88,16</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>86,4; 92,94</t>
+          <t>86,26; 93,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>74,85; 82,7</t>
+          <t>74,87; 83,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>79,55; 87,68</t>
+          <t>79,61; 87,46</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>84,86; 91,56</t>
+          <t>85,17; 91,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>73,86; 80,34</t>
+          <t>73,8; 80,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>80,76; 86,82</t>
+          <t>80,61; 86,45</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>87,02; 91,36</t>
+          <t>86,82; 91,53</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,49; 83,53</t>
+          <t>73,27; 83,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>81,83; 91,2</t>
+          <t>82,05; 91,82</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>84,01; 91,06</t>
+          <t>84,06; 91,35</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>77,72; 86,65</t>
+          <t>78,32; 86,97</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>85,4; 92,0</t>
+          <t>85,21; 91,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>89,03; 94,99</t>
+          <t>89,09; 95,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>77,26; 84,02</t>
+          <t>77,49; 84,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>85,33; 90,96</t>
+          <t>85,48; 90,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>87,91; 92,77</t>
+          <t>87,98; 92,77</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>74,97; 77,83</t>
+          <t>74,98; 77,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>78,81; 81,67</t>
+          <t>78,62; 81,44</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>83,23; 85,62</t>
+          <t>83,13; 85,69</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>76,73; 79,51</t>
+          <t>76,77; 79,51</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>81,59; 84,13</t>
+          <t>81,58; 84,22</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>86,42; 88,65</t>
+          <t>86,45; 88,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>76,21; 78,31</t>
+          <t>76,3; 78,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>80,55; 82,46</t>
+          <t>80,67; 82,55</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>85,25; 86,85</t>
+          <t>85,23; 86,92</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que desayuna, al menos, pan, tostadas, galletas, cereales, bollería, ...</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>775</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>690</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>397477</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>367617</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>359488</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>360577</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>335345</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>330206</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>758055</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>702963</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>689694</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>379636; 413759</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>350295; 386987</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>343943; 373041</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>341366; 377434</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>315113; 351091</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>315789; 343381</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>731169; 782370</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>677935; 725432</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>668227; 708195</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>540</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>513</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>454</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>495</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>994</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>967</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>567888</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>523005</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>495337</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>478838</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>486752</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>480340</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>1046726</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1009756</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>975677</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>543931; 589255</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>499014; 545958</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>475526; 512674</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>453139; 497054</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>466159; 506463</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>462207; 496933</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>1013880; 1079028</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>979956; 1041443</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>950704; 999635</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>511</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>516</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>554</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>578</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>955</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>1065</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>460453</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>537233</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>540400</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>527774</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>591296</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>576962</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>988228</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>1128529</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1117362</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>436897; 484473</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>515266; 558867</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>518044; 559100</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>505425; 549930</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>570765; 612683</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>558682; 592160</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>955859; 1021768</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>1099142; 1159262</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>1087637; 1140803</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>479</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>447</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>747</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1010</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>384706</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>491809</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>531022</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>400209</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>512835</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>572456</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>784914</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1004643</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1103478</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>362061; 405479</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>470779; 512283</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>506818; 548068</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>382033; 418526</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>493311; 532351</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>554751; 587942</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>754697; 809308</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>971841; 1032164</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1074931; 1127485</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>752</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>305289</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>342989</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>410800</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>323163</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>376146</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>442293</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>628452</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>719135</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>853093</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>288803; 318131</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>323505; 359282</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>393788; 425166</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>307066; 338574</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>358502; 391137</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>426694; 455064</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>606608; 648416</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>694725; 742264</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>827562; 872059</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>524</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>219096</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>261243</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>301027</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>271328</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>296199</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>334459</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>490424</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>557442</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>635486</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>202148; 231833</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>244149; 273103</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>288392; 311023</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>256741; 285113</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>281801; 309611</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>321725; 345622</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>468999; 510821</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>535093; 573853</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>618220; 651766</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>164867</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>217456</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>224588</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>275118</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>346608</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>368121</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>439985</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>564064</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>592710</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>153786; 174864</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>204112; 228429</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>214529; 233147</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>261528; 290406</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>331461; 357505</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>355461; 379845</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>421363; 457778</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>545135; 579882</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>575583; 606865</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>2451</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>2568</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>2733</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2573</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>2721</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>2914</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>5024</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>5289</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>5647</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>2499777</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>2741351</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>2862664</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>2637007</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>2945181</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>3104836</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>5136784</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>5686532</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>5967500</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>2451660; 2546062</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>2689402; 2785872</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>2818298; 2905288</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>2591023; 2683720</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>2897809; 2991591</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>3061402; 3139965</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>5070013; 5205592</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>5625395; 5756348</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>5907625; 6024899</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>